--- a/96Well/WebContent/download/template.xlsx
+++ b/96Well/WebContent/download/template.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsbiochem\OneDrive\文档\Tencent Files\3011109245\FileRecv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27180" windowHeight="19320"/>
+    <workbookView windowWidth="19800" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="2" r:id="rId1"/>
     <sheet name="WpsReserved_CellImgList" sheetId="3" state="veryHidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:N8"/>
 </workbook>
 </file>
 
@@ -23,6 +19,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">     Approved Drug Library  (96-well)</t>
     </r>
     <r>
@@ -31,7 +34,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
      </t>
@@ -41,7 +44,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>For more information on TargetMol library service, please contact us via</t>
     </r>
@@ -51,7 +54,7 @@
         <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> info@targetmol.com</t>
     </r>
@@ -63,36 +66,31 @@
     <t>Formulation</t>
   </si>
   <si>
+    <t>A collection of   2111 Approved Drugs</t>
+  </si>
+  <si>
     <t>Container</t>
+  </si>
+  <si>
+    <t>96 Well Format Sample Storage Tube  With  Cap and Optional 2D Barcode</t>
   </si>
   <si>
     <t>Shipping</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard </t>
-  </si>
-  <si>
-    <t>A collection of   2111 Approved Drugs</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>96 Well Format Sample Storage Tube  With  Cap and Optional 2D Barcode</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Blue ice or Dry ice</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1mg / 250μl, 10 mM / 100μl,10 mM</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Storage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">-20 </t>
     </r>
     <r>
@@ -100,7 +98,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -110,7 +107,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> or -80 </t>
     </r>
@@ -119,19 +116,29 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard </t>
+  </si>
+  <si>
+    <t>1mg / 250μl, 10 mM / 100μl,10 mM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,90 +150,440 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="5" tint="0.799981688894314"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="0" tint="-0.0499893185216834"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,98 +591,393 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFE9E9"/>
-      <color rgb="FFFFECEA"/>
-      <color rgb="FFFFFFF4"/>
-      <color rgb="FFEDF0F0"/>
-      <color rgb="FFFFF5F4"/>
-      <color rgb="FFFFFDF5"/>
-      <color rgb="FFFFFCE2"/>
-      <color rgb="FFF9FCFC"/>
-      <color rgb="FFF6F9F9"/>
-      <color rgb="FFFFF8F4"/>
+      <color rgb="00FFE9E9"/>
+      <color rgb="00FFECEA"/>
+      <color rgb="00FFFFF4"/>
+      <color rgb="00EDF0F0"/>
+      <color rgb="00FFF5F4"/>
+      <color rgb="00FFFDF5"/>
+      <color rgb="00FFFCE2"/>
+      <color rgb="00F9FCFC"/>
+      <color rgb="00F6F9F9"/>
+      <color rgb="00FFF8F4"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -349,7 +1001,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -362,8 +1014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8637905" y="132715"/>
-          <a:ext cx="1336675" cy="481330"/>
+          <a:off x="9191625" y="132715"/>
+          <a:ext cx="1452245" cy="481330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -393,7 +1045,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -456,7 +1108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +1143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,179 +1346,179 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="12" width="11.625" customWidth="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="57.95" customHeight="1" spans="1:14">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="2" s="1" customFormat="1" ht="17.25" customHeight="1"/>
+    <row r="3" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="7"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="19"/>
     </row>
-    <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="16" t="s">
+    <row r="7" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="19"/>
     </row>
-    <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="8" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="18" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="19"/>
     </row>
-    <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="6"/>
+    <row r="9" s="1" customFormat="1" ht="12.95" customHeight="1"/>
+    <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1"/>
+    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1"/>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
     </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A9:XFD11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:M8"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:M3"/>
@@ -876,24 +1528,32 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="A9:XFD11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/96Well/WebContent/download/template.xlsx
+++ b/96Well/WebContent/download/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18015" windowHeight="6660"/>
+    <workbookView windowWidth="19455" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -127,18 +127,21 @@
   <si>
     <t>1mg / 250μl, 10 mM / 100μl,10 mM</t>
   </si>
+  <si>
+    <t>Empty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +204,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -208,22 +218,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +278,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -245,12 +292,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -266,8 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,77 +347,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,192 +403,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -588,16 +598,55 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,30 +656,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,6 +686,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -669,31 +733,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,138 +751,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,16 +923,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -973,7 +1025,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>414020</xdr:colOff>
+      <xdr:colOff>408940</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>614045</xdr:rowOff>
     </xdr:to>
@@ -1000,7 +1052,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9313545" y="132715"/>
+          <a:off x="9561830" y="132715"/>
           <a:ext cx="1523365" cy="481330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1338,19 +1390,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.73333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.13333333333333" style="2" customWidth="1"/>
-    <col min="3" max="12" width="12.0916666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.13333333333333" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="2" max="16384" width="12.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.95" customHeight="1" spans="1:14">
@@ -1388,7 +1437,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -1408,7 +1457,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:14">
       <c r="A5" s="8" t="s">
@@ -1428,7 +1477,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:14">
       <c r="A6" s="6" t="s">
@@ -1448,7 +1497,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:14">
       <c r="A7" s="8" t="s">
@@ -1468,7 +1517,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -1488,14 +1537,19 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.95" customHeight="1"/>
     <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1"/>
     <row r="11" s="1" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+    <row r="14" ht="24" customHeight="1" spans="2:3">
+      <c r="B14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" ht="27.5" customHeight="1" spans="4:4">
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
